--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -501,6 +501,16 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R211-ActiviteOperationnelle/FHIR/TRE-R211-ActiviteOperationnelle?vs</t>
+  </si>
+  <si>
+    <t>OffreOperationnelle.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
   </si>
 </sst>
 </file>
@@ -805,7 +815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -824,7 +834,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3829,6 +3839,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="174">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -503,6 +503,26 @@
     <t>https://mos.esante.gouv.fr/NOS/TRE_R211-ActiviteOperationnelle/FHIR/TRE-R211-ActiviteOperationnelle?vs</t>
   </si>
   <si>
+    <t>OffreOperationnelle.SituationOperationnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SituationOperationnelle
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe SituationOperationnelle</t>
+  </si>
+  <si>
+    <t>OffreOperationnelle.Patientele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Patientele
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Patientele</t>
+  </si>
+  <si>
     <t>OffreOperationnelle.EntiteGeographique</t>
   </si>
   <si>
@@ -511,6 +531,26 @@
   </si>
   <si>
     <t>Lien vers la classe EntiteGeographique</t>
+  </si>
+  <si>
+    <t>OffreOperationnelle.LieuRealisationOffre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/LieuRealisationOffre
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe LieuRealisationOffre</t>
+  </si>
+  <si>
+    <t>OffreOperationnelle.OrganisationInterne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/OrganisationInterne
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe OrganisationInterne</t>
   </si>
 </sst>
 </file>
@@ -815,7 +855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -834,7 +874,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3855,7 +3895,7 @@
         <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>71</v>
@@ -3930,12 +3970,412 @@
         <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
+++ b/ML/ig/StructureDefinition-OffreOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
